--- a/Spring_6/FO.RV.GDC.SDC.006-001.xlsx
+++ b/Spring_6/FO.RV.GDC.SDC.006-001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdc-docs\Spring_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdc-docs\Spring_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Proyecto</t>
   </si>
@@ -74,34 +74,19 @@
     <t>Observaciones - correcciones</t>
   </si>
   <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
     <t>Se completo el sprint satisfactoriamente</t>
   </si>
   <si>
-    <t>HU-006</t>
-  </si>
-  <si>
-    <t>HU-007</t>
-  </si>
-  <si>
-    <t>HU-010</t>
-  </si>
-  <si>
-    <t>HU-011</t>
-  </si>
-  <si>
-    <t>Como anunciante quiero poder mostrar imágenes, textos, videos y enlaces en el dispositivo del usuario para poder tener un mayor impacto sobre él.</t>
-  </si>
-  <si>
-    <t>Como anunciante quiero poder poner enlaces a las imágenes de mi contenido que dirijan al usuario a la página web de mi elección para interactuar con el usuario directamente.</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder seleccionar enlaces que aparezcan en un contenido para continuar con el flujo o proceso del anuncio.</t>
-  </si>
-  <si>
-    <t>Como anunciante quiero poder mostrar videos de fuente externa en mi contenido asociado a uno o varios beacons para poder ofrecer una mejor experiencia al usuario.</t>
+    <t>HU-015</t>
+  </si>
+  <si>
+    <t>HU-016</t>
+  </si>
+  <si>
+    <t>Como usuario deseo poder filtrar los anuncios que recibo de acuerdo a palabras clave que se utilizarán como lista negra y blanca para no percibir una sensación de invasión de privacidad.</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder guardar anuncios como favoritos para poder tomar una decisión en una posterior visualización.</t>
   </si>
 </sst>
 </file>
@@ -271,50 +256,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,25 +638,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14">
-        <v>43363</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="19">
+        <v>43454</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -680,233 +665,201 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
+  <mergeCells count="19">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B13">
+  <conditionalFormatting sqref="B10:B11">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G7=$I$5</formula>
     </cfRule>
